--- a/story/Activity Story 活动剧情/act16d5 Who is Real 画中人 画中人/level_act16d5_08_end.xlsx
+++ b/story/Activity Story 活动剧情/act16d5 Who is Real 画中人 画中人/level_act16d5_08_end.xlsx
@@ -2008,7 +2008,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="사가"]각국의 전설, 명작, 고서, 신화 중 얼마나 많은 것이 거짓이고, 얼마나 많은 것이 소박한 생활과는 인연이 있겠소. 전부 '거짓'이라는 이유로 그것의 의미를 부정해야만 하는 것이오?
+    <t xml:space="preserve">[name="사가"]각국의 전설, 명작, 고서, 신화 중 얼마나 많은 것이 거짓이고, 얼마나 많은 것이 소박한 생활과 인연이 있겠소. 전부 '거짓'이라는 이유로 그것의 의미를 부정해야만 하는 것이오?
 </t>
   </si>
   <si>
@@ -2092,7 +2092,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="시"]흠.
+    <t xml:space="preserve">[name="시"]허.
 </t>
   </si>
   <si>
@@ -2184,7 +2184,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="사가"]네?
+    <t xml:space="preserve">[name="사가"]어?
 </t>
   </si>
   <si>
